--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد عبدالحكيم محمد الامين الصادق العايدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mohamed Abd El Hakeem</x:t>
   </x:si>
   <x:si>
     <x:t>1240148</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -730,7 +721,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.110625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Seif eldin ayman abdelmomen ali mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهد وليد سيد محمود السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230061</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,7 +714,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.110625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1060,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6247905903</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1280,11 +1271,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1307,14 +1296,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed ahmed saied saleh elmohandes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240263</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -714,7 +723,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.110625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Bilal Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240058</x:t>
   </x:si>
   <x:si>
@@ -105,6 +114,15 @@
     <x:t>Seif eldin ayman abdelmomen ali mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230061</x:t>
   </x:si>
   <x:si>
@@ -112,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -413,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -900,7 +927,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45921.825549456</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -932,7 +959,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -964,7 +991,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,7 +1023,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1028,7 +1055,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4218131134</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1087,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.4218131134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1119,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45921.8250834144</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45921.825319294</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1247,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1279,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1280,9 +1307,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,16 +1334,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,16 +1366,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,16 +1398,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1774,102 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6660851505</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6653748843</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -298,15 +298,6 @@
   </x:si>
   <x:si>
     <x:t>NourEldeen Eid Mohamed Fathi Sayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد العزب عبده داغر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed ElAzab Abdo Dagher</x:t>
   </x:si>
   <x:si>
     <x:t>1240169</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Seif eldin ayman abdelmomen ali mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Khaled Elameer</x:t>
   </x:si>
   <x:si>
     <x:t>4250178</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1110,7 +1119,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.8250834144</x:v>
+        <x:v>45927.4144306713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45921.8250834144</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.825319294</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45921.825319294</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1394,9 +1403,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,16 +1430,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45927.6340586806</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -186,13 +186,13 @@
     <x:t>Omar Mohsen</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
+    <x:t>1240244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>4240036</x:t>
@@ -1375,7 +1375,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45927.928565081</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1230061</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1183,7 +1192,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4617486921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.825319294</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45921.825319294</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.928565081</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45927.928565081</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1435,9 +1444,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,16 +1471,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6340586806</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45927.6340586806</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Programming Techniques (CMPS102) Location : [3706]3706-45-الجيزة الرئيسي Time : Thursday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS102_Tutorial-35495.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35495.xlsx
@@ -129,7 +129,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1220254</x:t>
